--- a/biology/Botanique/Pellicieraceae/Pellicieraceae.xlsx
+++ b/biology/Botanique/Pellicieraceae/Pellicieraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pellicieraceae (les Pelliciéracées en français) est une famille de plantes à fleurs dicotylédones. Selon Watson &amp; Dallwitz, cette famille ne comprend qu'un genre Pelliciera (en) et une seule espèce :
 Pelliciera rhizophorae
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Pelliciera qui « commémore l'ecclésiastique français, diplomate et naturaliste, Guillaume Pellicier (1527–1568), évêque de Montpellier »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Pelliciera qui « commémore l'ecclésiastique français, diplomate et naturaliste, Guillaume Pellicier (1527–1568), évêque de Montpellier ».
 </t>
         </is>
       </c>
@@ -544,11 +558,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification phylogénétique APG II (2003)[2], cette famille est optionnelle : ces plantes peuvent être incluses dans les Tétraméristacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG II (2003), cette famille est optionnelle : ces plantes peuvent être incluses dans les Tétraméristacées.
 Le Angiosperm Phylogeny Website [7 mai 2007] n'accepte pas cette famille et inclut cette espèce dans les Tétraméristacées.
-En classification phylogénétique APG III (2009)[3], cette famille est invalide et ses genres sont incorporés dans la famille Tetrameristaceae.
+En classification phylogénétique APG III (2009), cette famille est invalide et ses genres sont incorporés dans la famille Tetrameristaceae.
 </t>
         </is>
       </c>
